--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://electrolux-my.sharepoint.com/personal/akhila_sekar_electrolux_com/Documents/Documents/Akhila Work/PP-Parts Prediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://electrolux-my.sharepoint.com/personal/akhila_sekar_electrolux_com/Documents/Documents/Akhila Work/PP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{C701395A-B64F-4209-9232-498DBD5841A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4946CC75-41F8-4D02-A57C-74E00ED99516}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{C701395A-B64F-4209-9232-498DBD5841A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{872728B6-9BE1-425F-8F05-20CCDBEF0853}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PROD Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>PNC</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Resolution Code</t>
   </si>
   <si>
-    <t>Action Taken</t>
-  </si>
-  <si>
-    <t>ISP</t>
-  </si>
-  <si>
     <t>SAP Part Number 1</t>
   </si>
   <si>
@@ -164,31 +158,6 @@
     <t>1003213654</t>
   </si>
   <si>
-    <t>944181233</t>
-  </si>
-  <si>
-    <t>B8871-5-M</t>
-  </si>
-  <si>
-    <t>92533661</t>
-  </si>
-  <si>
-    <t>0001100022</t>
-  </si>
-  <si>
-    <t>New Fault : 
- FI ERROR CODE NOW SHOWS  since last repair , the customer put the pyrolytic clean on and the oven door didn't lock automatically , he is not sure got temperature either.
-Parking: yes -  driveway available 
-Additional Info:  plz put on cancelation list 
-Power To Appliance: yes      
-/Integrate: 
-Troubleshooting Advised: yes,
-Any other recent repairs on appliance carried out?  Yes please job histories
-T’s&amp; C’s confirmed: Yes .....................................................................................................
-original reported fault 
-When switching on oven and adjusting temperature, it starts to heat up but in a very short time, it trips out the switch at the Electrical Fuse Board. This was first noticed when attempting to carry out a pyrolytic clean when an error code of F2 was displayed.</t>
-  </si>
-  <si>
     <t>21 - Mechanical fault</t>
   </si>
   <si>
@@ -201,42 +170,12 @@
     <t>121</t>
   </si>
   <si>
-    <t>Replaced door lock. Asked Customer to check pyrolytic clean function again. 4658387</t>
-  </si>
-  <si>
-    <t>GBXISP2353</t>
-  </si>
-  <si>
     <t>1801523844</t>
   </si>
   <si>
     <t>1003299684</t>
   </si>
   <si>
-    <t>925504034</t>
-  </si>
-  <si>
-    <t>ZNNN18FS5</t>
-  </si>
-  <si>
-    <t>21800028</t>
-  </si>
-  <si>
-    <t>0001000071</t>
-  </si>
-  <si>
-    <t>REVISITRepair had been done by Pacifica - fixed the loud humming noise but the noise is back now and louder than it should be,
-also has a bright triangle flashing 
-•Fixed Price Repair 
-•Fault (Full description): is giving of a beeping sound and now not getting cold. its giving a triangle warning sign.
-•Parking or any access / entrance codes the Technician needs to be aware of – Street Parking 
-•Additional info  - 
-•Power to appliance - yes 
-•Freestanding / Integrated - integrated
-•What troubleshooting advised – turned off at mains - unplugged - 
-•Any other recent repairs carried out on the appliance?</t>
-  </si>
-  <si>
     <t>90 - Flame blow out</t>
   </si>
   <si>
@@ -246,12 +185,6 @@
     <t>C10</t>
   </si>
   <si>
-    <t>Engineer note:Wet wall de-laminated; EFP7927</t>
-  </si>
-  <si>
-    <t>GBXISP2425</t>
-  </si>
-  <si>
     <t>1802353466</t>
   </si>
   <si>
@@ -264,168 +197,39 @@
     <t>1003582065</t>
   </si>
   <si>
-    <t>925506007</t>
-  </si>
-  <si>
-    <t>ZBB27640SV</t>
-  </si>
-  <si>
-    <t>81500369</t>
-  </si>
-  <si>
-    <t>ice building up
-Service Provider Model: 000000516
-Claim Type: Breakdown
-Notes: Fault Tree Selection: TEMPERATURE - Ice forming on the fridge wall
- ice building up</t>
-  </si>
-  <si>
     <t>80 - Frost build-up</t>
   </si>
   <si>
     <t>Z5</t>
   </si>
   <si>
-    <t>insulation has failed - no repair possible EXC 6792</t>
-  </si>
-  <si>
-    <t>GBXISP2401</t>
-  </si>
-  <si>
     <t>1003247794</t>
   </si>
   <si>
-    <t>925503369</t>
-  </si>
-  <si>
-    <t>ZNLK18ES3</t>
-  </si>
-  <si>
-    <t>42261432</t>
-  </si>
-  <si>
-    <t>Fault – Fridge freezer has condensation and then it builds up ice and is always wet on the inside  
-Parking – Driveway parking  
-Additional info –Shoe covers needed  
-Power to appliance –Yes  
-Freestanding / Integrated –Intergrated  
-What trouble shooting advised - https://support.electrolux.co.uk/support-articles/article/ice-forms-on-the-bottom-of-my-freezer 
-Any other recent repairs ?No</t>
-  </si>
-  <si>
     <t>107 - Control knob</t>
   </si>
   <si>
     <t>Z1</t>
   </si>
   <si>
-    <t>No fault found customer did not understand a wetwall evaporator</t>
-  </si>
-  <si>
     <t>1003215817</t>
   </si>
   <si>
-    <t>933027092</t>
-  </si>
-  <si>
-    <t>ZYAE82FR</t>
-  </si>
-  <si>
-    <t>25110013</t>
-  </si>
-  <si>
-    <t>REVISIT Zanussi Freezer - FPR £149.00
-Description:
-Fault (full description):-alarms goes of and it starts defrosting, this happens regularly and customer has had to throw food away
-Work Description:
-Department: AMS
-Fixed Price Repair / Repair &amp; Care (If R&amp;C add in plan number). FPR £149.00
-Brand/Appliance: Zanussi Freezer
-Power To Appliance: (Check plugged in and any red power switches are on)-y
-Freestanding/Integrated: Int
-Troubleshooting Advised: Yes switched the appliance off and on and still not working
-Any other recent repairs on appliance carried out? If so, what? None
-Parking: yes on street and no restrictions
-Additional Info: 
-T&amp;C’s confirmed: Read and Agreed</t>
-  </si>
-  <si>
     <t>84 - Excessive refrigerant</t>
   </si>
   <si>
     <t>151 - Inner liner, refrigerator</t>
   </si>
   <si>
-    <t>Engineer note:Efb7041;
-Attempted regas bit unable to pull a vacuum. Fills back up as soon as vacuum pump switched off.</t>
-  </si>
-  <si>
     <t>1003334723</t>
   </si>
   <si>
-    <t>925503329</t>
-  </si>
-  <si>
-    <t>OSC5S181ES</t>
-  </si>
-  <si>
-    <t>43558957</t>
-  </si>
-  <si>
-    <t>-Fault (Full detail) – AEG Fridge Freezer -  setting is on 8, had setting on 4, still freezing products in fridge compartment
--Parking or any access / entrance codes the Technician needs to be aware of – Yes,  driveway &amp; street parking 
--Additional info / Any personal circumstances regarding the consumer - No 
--Power to appliance - (Check plugged in and any red power switches are on) Yes 
--Freestanding / Integrated – Integrated 
--Troubleshooting completed (What was advised?) – 
-✅ Common Causes and Fixes
-Temperature Setting Too Low
-Even though 4 is a moderate setting, some AEG models may still overcool depending on ambient temperature or internal airflow. Try setting it to 2 or 3 and monitor for a day or two.
-Coolmatic / FastCool Mode Active
-Some AEG models have a Coolmatic or FastCool mode that rapidly cools the fridge. If this is accidentally left on, it can cause freezing. Check your control panel and turn this mode off if it's active.
-Blocked Air Vents
-Ensure no food items are blocking the air vents inside the fridge. Cold air from the freezer can flow directly into the fridge and cause localized freezing 
-Items Touching the Back Wall
-The back wall of the fridge often gets very cold during the cooling cycle. If food is touching it, it can freeze. Try rearranging items to avoid contact with the back wall 
-Faulty Temperature Sensor or Thermostat
-If the sensor is malfunctioning, it may misread the temperature and overcool. This usually requires a technician to diagnose and replace the sensor 
-Fan or Air Damper Issues
-If your fridge has a fan or air damper that’s stuck open, it might be letting too much cold air into the fridge compartment. This also may need professional servicing
-Door Seal Damage
-A damaged or loose door seal can cause the fridge to overcompensate by cooling more than necessary. Check the seal for gaps or cracks 
--Any other recent repairs carried out on the appliance? Yes / No. If yes, what? No</t>
-  </si>
-  <si>
     <t>155 - Glass/plastic shelves</t>
   </si>
   <si>
-    <t>Explanation for customer and advised to monitor</t>
-  </si>
-  <si>
     <t>1003362484</t>
   </si>
   <si>
-    <t>922784049</t>
-  </si>
-  <si>
-    <t>ABK818E6NC</t>
-  </si>
-  <si>
-    <t>70908643</t>
-  </si>
-  <si>
-    <t>• Fault (Full description) –  Top part that holds shelf is broken. Dropdown doors on top shelf. One of the hinges are broken as well
-• Parking or any access / entrance codes the Technician needs to be aware of –  Free parking
- • Additional info / Any personal circumstances regarding the consumer -  No
-• Power to appliance - (Check plugged in and any red power switches are on) - Yes 
-• Integrated / Freestanding -  Integrated
-• What troubleshooting advised –  N/A
-• Any other recent repairs carried out on the appliance? - Yes, same issue</t>
-  </si>
-  <si>
-    <t>Please POST direct to customers</t>
-  </si>
-  <si>
     <t>1801299152</t>
   </si>
   <si>
@@ -438,54 +242,18 @@
     <t>1003501389</t>
   </si>
   <si>
-    <t>925515300</t>
-  </si>
-  <si>
-    <t>SCB718F3LS</t>
-  </si>
-  <si>
-    <t>22800037</t>
-  </si>
-  <si>
-    <t>Fault (Full description): Retailer called to report that the freezer keeps freezing over. The freezer door is not closing properly.
-Power to Appliance – YES
-Freestanding / Integrated: BI
-What troubleshooting advised: NONE
-Any other recent repairs on appliance carried out – NO
-Parking: - AVAILABLE
-Additional info: NONE</t>
-  </si>
-  <si>
     <t>154 - Freezer comp. door w. hinge</t>
   </si>
   <si>
     <t>Z3</t>
   </si>
   <si>
-    <t>Defrosted the freezer. Freezer door inspected okay. Operation and safety tested okay.</t>
-  </si>
-  <si>
     <t>1003491534</t>
   </si>
   <si>
-    <t>925505069</t>
-  </si>
-  <si>
-    <t>ZNHN18FS1</t>
-  </si>
-  <si>
-    <t>24400405</t>
-  </si>
-  <si>
-    <t>The fridge freezer is not working we have had to throw out lots of frozen food today.  The whole fridge freezer needs to be replaced</t>
-  </si>
-  <si>
     <t>223 - Insulation</t>
   </si>
   <si>
-    <t>Clean ice from fan , tested functioning ok customer to monitor progress</t>
-  </si>
-  <si>
     <t>1802410511</t>
   </si>
   <si>
@@ -502,6 +270,61 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>aaa71-5-M</t>
+  </si>
+  <si>
+    <t>bbbN18FS5</t>
+  </si>
+  <si>
+    <t>Zccc27640SV</t>
+  </si>
+  <si>
+    <t>ZNLK18xxx</t>
+  </si>
+  <si>
+    <t>ZYAE8xxx</t>
+  </si>
+  <si>
+    <t>OSC5S18xxx</t>
+  </si>
+  <si>
+    <t>ABK818E666</t>
+  </si>
+  <si>
+    <t>SCB718xxxx</t>
+  </si>
+  <si>
+    <t>ZNHN1xxxx</t>
+  </si>
+  <si>
+    <t>Cracked/Split/Broken/Fractured</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sharp edges coming up</t>
+  </si>
+  <si>
+    <t>Not heating up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault – Fridge freezer has condensation and then it builds up ice and is always wet on the inside  </t>
+  </si>
+  <si>
+    <t>Description:
+Fault (full description):-alarms goes of and it starts defrosting, this happens regularly and customer has had to throw food away</t>
+  </si>
+  <si>
+    <t>-Fault (Full detail) – AEG Fridge Freezer -  setting is on 8, had setting on 4, still freezing products in fridge compartment</t>
+  </si>
+  <si>
+    <t>• Fault (Full description) –  Top part that holds shelf is broken. Dropdown doors on top shelf. One of the hinges are broken as well</t>
+  </si>
+  <si>
+    <t>Fault (Full description): Retailer called to report that the freezer keeps freezing over. The freezer door is not closing properly.</t>
+  </si>
+  <si>
+    <t>The fridge freezer is not working we have had to throw out lots of frozen food today.  The whole fridge freezer needs to be replace</t>
   </si>
 </sst>
 </file>
@@ -563,6 +386,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -881,8 +708,8 @@
     <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="122.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.81640625" bestFit="1" customWidth="1"/>
@@ -899,8 +726,8 @@
     <col min="27" max="27" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17.90625" bestFit="1" customWidth="1"/>
@@ -911,13 +738,11 @@
     <col min="39" max="39" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -932,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1039,448 +864,388 @@
       <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="B2">
+        <v>144181233</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2">
+        <v>12533661</v>
+      </c>
+      <c r="E2">
+        <v>11000661</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
         <v>40</v>
       </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>125504034</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>11800028</v>
+      </c>
+      <c r="E3">
+        <v>11000661</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" t="s">
-        <v>65</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3">
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>125506007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>11500369</v>
+      </c>
+      <c r="E4">
+        <v>11000661</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>125503369</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>12261432</v>
+      </c>
+      <c r="E5">
+        <v>11000661</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>133027092</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>15110013</v>
+      </c>
+      <c r="E6">
+        <v>11000661</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="I4" t="s">
+      <c r="B7">
+        <v>125503329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>13558957</v>
+      </c>
+      <c r="E7">
+        <v>11000661</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>76</v>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" t="s">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>122784049</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>10908643</v>
+      </c>
+      <c r="E8">
+        <v>11000661</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
         <v>62</v>
       </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
+      <c r="M8">
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8" t="s">
-        <v>108</v>
-      </c>
-      <c r="S8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>125515300</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>12800037</v>
+      </c>
+      <c r="E9">
+        <v>11000661</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>125505069</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <v>14400405</v>
+      </c>
+      <c r="E10">
+        <v>11000661</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>73</v>
-      </c>
-      <c r="H9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" t="s">
-        <v>124</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U10">
         <v>1</v>
       </c>
     </row>
